--- a/Overall Stats/Ibantik/Ibantik Report.xlsx
+++ b/Overall Stats/Ibantik/Ibantik Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Ibantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C88DD6C-1734-412B-B8A8-CCD86B1D5DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03231148-38C6-4199-9787-658DAF10BDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C35B757-DA79-41AA-AD60-65F2C39C5FD9}"/>
+    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{7C35B757-DA79-41AA-AD60-65F2C39C5FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -223,12 +223,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -237,6 +231,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,6 +804,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F963-4AD8-83C9-58619DBAEDF0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -2424,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBCB069-FCED-4131-B87F-1B6FE667E61C}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2460,12 +2465,12 @@
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -2525,12 +2530,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -2602,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B9FB7F-3834-4D32-9442-497D8E83FFE3}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2612,12 +2617,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2637,12 +2642,12 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2664,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <f>SUM('2020'!C5)</f>
         <v>1</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>SUM('2020'!C6)</f>
         <v>1</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f>SUM(C7/C8)</f>
         <v>1</v>
       </c>
@@ -2693,7 +2698,7 @@
       <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
     </row>
